--- a/Net+Azure.xlsx
+++ b/Net+Azure.xlsx
@@ -805,16 +805,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -834,24 +852,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,7 +1159,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1169,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -1206,420 +1206,420 @@
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="38">
         <v>0.5</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="31"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="31"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="29"/>
+      <c r="G7" s="34"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="29"/>
+      <c r="G8" s="34"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="29"/>
+      <c r="G9" s="34"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="29"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="29" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="31">
         <v>1</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="34" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="43" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="29"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="43" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="29"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="31"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="43" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="29"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="29" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="44" t="s">
+      <c r="E15" s="32"/>
+      <c r="F15" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="31"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="5" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="29"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="5" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="29"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="5" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="29"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="44" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="29"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="44" t="s">
+      <c r="B20" s="32"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="29"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="44" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="34"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="5" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="5" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="5" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="5" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="29"/>
+      <c r="G25" s="34"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="5" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="29"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="5" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="29"/>
+      <c r="G27" s="34"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="31"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="31"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="29" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="31">
         <v>0.5</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="31"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="43" t="s">
+      <c r="B30" s="32"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="34"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="31"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="43" t="s">
+      <c r="B31" s="32"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="29"/>
+      <c r="G31" s="34"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="31"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="43" t="s">
+      <c r="B32" s="32"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="34"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="31"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="43" t="s">
+      <c r="B33" s="32"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="29"/>
+      <c r="G33" s="34"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="31"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="43" t="s">
+      <c r="B34" s="32"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="29"/>
+      <c r="G34" s="34"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="31"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="43" t="s">
+      <c r="B35" s="32"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="34"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="31"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="43" t="s">
+      <c r="B36" s="32"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="34"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="31"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="43" t="s">
+      <c r="B37" s="32"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="29"/>
+      <c r="G37" s="34"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="31"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="43" t="s">
+      <c r="B38" s="32"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G38" s="29"/>
+      <c r="G38" s="34"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="31"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="43" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G39" s="29"/>
+      <c r="G39" s="34"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="32"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="5" t="s">
+      <c r="B40" s="33"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G40" s="29"/>
+      <c r="G40" s="34"/>
     </row>
     <row r="41" spans="2:7" ht="24" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
@@ -1638,621 +1638,621 @@
       <c r="G41" s="7"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="31">
         <v>0.5</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="29" t="s">
+      <c r="G42" s="34" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="5" t="s">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G43" s="29"/>
+      <c r="G43" s="34"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="5" t="s">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="29"/>
+      <c r="G44" s="34"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="5" t="s">
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="29"/>
+      <c r="G45" s="34"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="5" t="s">
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G46" s="29"/>
+      <c r="G46" s="34"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="31"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="32"/>
       <c r="F47" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G47" s="29"/>
+      <c r="G47" s="34"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="31"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="32"/>
       <c r="F48" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G48" s="29"/>
+      <c r="G48" s="34"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="31"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="32"/>
       <c r="F49" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G49" s="29"/>
+      <c r="G49" s="34"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="31"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="32"/>
       <c r="F50" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G50" s="29"/>
+      <c r="G50" s="34"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="5" t="s">
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G51" s="29"/>
+      <c r="G51" s="34"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="29" t="s">
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E52" s="30">
+      <c r="E52" s="31">
         <v>0.5</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G52" s="29" t="s">
+      <c r="G52" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="31"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="32"/>
       <c r="F53" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G53" s="29"/>
+      <c r="G53" s="34"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="31"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="32"/>
       <c r="F54" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G54" s="29"/>
+      <c r="G54" s="34"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="31"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="32"/>
       <c r="F55" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G55" s="29"/>
+      <c r="G55" s="34"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="31"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="32"/>
       <c r="F56" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G56" s="29"/>
+      <c r="G56" s="34"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="31"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="32"/>
       <c r="F57" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G57" s="29"/>
+      <c r="G57" s="34"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="31"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="32"/>
       <c r="F58" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G58" s="29"/>
+      <c r="G58" s="34"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="31"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="32"/>
       <c r="F59" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G59" s="29"/>
+      <c r="G59" s="34"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="32"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="33"/>
       <c r="F60" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G60" s="29"/>
+      <c r="G60" s="34"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="29" t="s">
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="E61" s="30">
+      <c r="E61" s="31">
         <v>0.5</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G61" s="29" t="s">
+      <c r="G61" s="34" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="31"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="32"/>
       <c r="F62" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G62" s="29"/>
+      <c r="G62" s="34"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="31"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="32"/>
       <c r="F63" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G63" s="29"/>
+      <c r="G63" s="34"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="31"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="32"/>
       <c r="F64" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G64" s="29"/>
+      <c r="G64" s="34"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="32"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="33"/>
       <c r="F65" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G65" s="29"/>
+      <c r="G65" s="34"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="29" t="s">
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="E66" s="30">
+      <c r="E66" s="31">
         <v>1.5</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G66" s="29" t="s">
+      <c r="G66" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="31"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="32"/>
       <c r="F67" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G67" s="29"/>
+      <c r="G67" s="34"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="31"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="32"/>
       <c r="F68" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G68" s="29"/>
+      <c r="G68" s="34"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="31"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="32"/>
       <c r="F69" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G69" s="29"/>
+      <c r="G69" s="34"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="31"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="32"/>
       <c r="F70" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G70" s="29"/>
+      <c r="G70" s="34"/>
     </row>
     <row r="71" spans="2:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="31"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="32"/>
       <c r="F71" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G71" s="29"/>
+      <c r="G71" s="34"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="31"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="32"/>
       <c r="F72" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G72" s="29"/>
+      <c r="G72" s="34"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="31"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="32"/>
       <c r="F73" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G73" s="29"/>
+      <c r="G73" s="34"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="31"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="32"/>
       <c r="F74" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G74" s="29"/>
+      <c r="G74" s="34"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="31"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="32"/>
       <c r="F75" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G75" s="29"/>
+      <c r="G75" s="34"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="31"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="32"/>
       <c r="F76" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G76" s="29"/>
+      <c r="G76" s="34"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="31"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="32"/>
       <c r="F77" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G77" s="29"/>
+      <c r="G77" s="34"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="31"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="32"/>
       <c r="F78" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G78" s="29"/>
+      <c r="G78" s="34"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="31"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="32"/>
       <c r="F79" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G79" s="29"/>
+      <c r="G79" s="34"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="31"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="32"/>
       <c r="F80" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G80" s="29"/>
+      <c r="G80" s="34"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="31"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="32"/>
       <c r="F81" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G81" s="29"/>
+      <c r="G81" s="34"/>
     </row>
     <row r="82" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="31"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="32"/>
       <c r="F82" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G82" s="29"/>
+      <c r="G82" s="34"/>
     </row>
     <row r="83" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="31"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="32"/>
       <c r="F83" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G83" s="29"/>
+      <c r="G83" s="34"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="31"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="32"/>
       <c r="F84" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G84" s="29"/>
+      <c r="G84" s="34"/>
     </row>
     <row r="85" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="31"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="32"/>
       <c r="F85" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G85" s="29"/>
+      <c r="G85" s="34"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="31"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="32"/>
       <c r="F86" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G86" s="29"/>
+      <c r="G86" s="34"/>
     </row>
     <row r="87" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="32"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="33"/>
       <c r="F87" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G87" s="29"/>
+      <c r="G87" s="34"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="29" t="s">
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="E88" s="30">
+      <c r="E88" s="31">
         <v>0.5</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G88" s="29" t="s">
+      <c r="G88" s="34" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="31"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="32"/>
       <c r="F89" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G89" s="29"/>
+      <c r="G89" s="34"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="31"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="32"/>
       <c r="F90" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G90" s="29"/>
+      <c r="G90" s="34"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="31"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="32"/>
       <c r="F91" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G91" s="29"/>
+      <c r="G91" s="34"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="31"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="32"/>
       <c r="F92" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G92" s="29"/>
+      <c r="G92" s="34"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="31"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="31"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="32"/>
       <c r="F93" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G93" s="29"/>
+      <c r="G93" s="34"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="31"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="32"/>
       <c r="F94" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G94" s="29"/>
+      <c r="G94" s="34"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="31"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="32"/>
       <c r="F95" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G95" s="29"/>
+      <c r="G95" s="34"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="31"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="32"/>
       <c r="F96" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G96" s="29"/>
+      <c r="G96" s="34"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="31"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="32"/>
       <c r="F97" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G97" s="29"/>
+      <c r="G97" s="34"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="31"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="31"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="32"/>
       <c r="F98" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G98" s="29"/>
+      <c r="G98" s="34"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="31"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="32"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="33"/>
       <c r="F99" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G99" s="29"/>
+      <c r="G99" s="34"/>
     </row>
     <row r="100" spans="2:7" s="15" customFormat="1" ht="132" x14ac:dyDescent="0.3">
-      <c r="B100" s="32"/>
+      <c r="B100" s="33"/>
       <c r="C100" s="12" t="s">
         <v>116</v>
       </c>
@@ -2286,7 +2286,7 @@
       <c r="G101" s="18"/>
     </row>
     <row r="102" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="33" t="s">
+      <c r="B102" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C102" s="12" t="s">
@@ -2301,12 +2301,12 @@
       <c r="F102" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="G102" s="36" t="s">
+      <c r="G102" s="42" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="34"/>
+      <c r="B103" s="40"/>
       <c r="C103" s="12" t="s">
         <v>125</v>
       </c>
@@ -2319,10 +2319,10 @@
       <c r="F103" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G103" s="36"/>
+      <c r="G103" s="42"/>
     </row>
     <row r="104" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B104" s="35"/>
+      <c r="B104" s="41"/>
       <c r="C104" s="12" t="s">
         <v>125</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="F104" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="G104" s="36"/>
+      <c r="G104" s="42"/>
     </row>
     <row r="105" spans="2:7" ht="24" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
@@ -2351,10 +2351,10 @@
       <c r="F105" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G105" s="36"/>
+      <c r="G105" s="42"/>
     </row>
     <row r="106" spans="2:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="B106" s="30" t="s">
+      <c r="B106" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C106" s="12" t="s">
@@ -2369,10 +2369,10 @@
       <c r="F106" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="G106" s="36"/>
+      <c r="G106" s="42"/>
     </row>
     <row r="107" spans="2:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B107" s="32"/>
+      <c r="B107" s="33"/>
       <c r="C107" s="12" t="s">
         <v>125</v>
       </c>
@@ -2385,7 +2385,7 @@
       <c r="F107" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="G107" s="36"/>
+      <c r="G107" s="42"/>
     </row>
     <row r="108" spans="2:7" ht="24" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
@@ -2401,10 +2401,10 @@
       <c r="F108" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G108" s="36"/>
+      <c r="G108" s="42"/>
     </row>
     <row r="109" spans="2:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="B109" s="30" t="s">
+      <c r="B109" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C109" s="12" t="s">
@@ -2419,10 +2419,10 @@
       <c r="F109" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="G109" s="36"/>
+      <c r="G109" s="42"/>
     </row>
     <row r="110" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B110" s="32"/>
+      <c r="B110" s="33"/>
       <c r="C110" s="12" t="s">
         <v>125</v>
       </c>
@@ -2435,10 +2435,10 @@
       <c r="F110" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="G110" s="36"/>
+      <c r="G110" s="42"/>
     </row>
     <row r="111" spans="2:7" s="15" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="B111" s="37" t="s">
+      <c r="B111" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C111" s="6" t="s">
@@ -2451,10 +2451,10 @@
       <c r="F111" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G111" s="36"/>
+      <c r="G111" s="42"/>
     </row>
     <row r="112" spans="2:7" s="15" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="B112" s="38"/>
+      <c r="B112" s="44"/>
       <c r="C112" s="6" t="s">
         <v>138</v>
       </c>
@@ -2473,13 +2473,18 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E11:E28"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="D15:D28"/>
-    <mergeCell ref="G15:G28"/>
-    <mergeCell ref="D29:D40"/>
-    <mergeCell ref="E29:E40"/>
-    <mergeCell ref="G29:G40"/>
+    <mergeCell ref="G88:G99"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="G102:G111"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B2:B40"/>
+    <mergeCell ref="C2:C40"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="D11:D14"/>
     <mergeCell ref="B42:B100"/>
     <mergeCell ref="C42:C99"/>
     <mergeCell ref="D42:D51"/>
@@ -2487,12 +2492,6 @@
     <mergeCell ref="G42:G51"/>
     <mergeCell ref="D52:D60"/>
     <mergeCell ref="E52:E60"/>
-    <mergeCell ref="B2:B40"/>
-    <mergeCell ref="C2:C40"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="E2:E10"/>
-    <mergeCell ref="G2:G10"/>
-    <mergeCell ref="D11:D14"/>
     <mergeCell ref="G52:G60"/>
     <mergeCell ref="D61:D65"/>
     <mergeCell ref="E61:E65"/>
@@ -2502,12 +2501,13 @@
     <mergeCell ref="G66:G87"/>
     <mergeCell ref="D88:D99"/>
     <mergeCell ref="E88:E99"/>
-    <mergeCell ref="G88:G99"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="G102:G111"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="E11:E28"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="D15:D28"/>
+    <mergeCell ref="G15:G28"/>
+    <mergeCell ref="D29:D40"/>
+    <mergeCell ref="E29:E40"/>
+    <mergeCell ref="G29:G40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
